--- a/src/test/java/com/resources/MyTestData.xlsx
+++ b/src/test/java/com/resources/MyTestData.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\April26thIreneData\repos\SeleniumDemoAutomation15thMay\src\test\java\com\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="636" yWindow="540" windowWidth="21732" windowHeight="8892"/>
+    <workbookView xWindow="640" yWindow="540" windowWidth="21730" windowHeight="8890"/>
   </bookViews>
   <sheets>
     <sheet name="AppData" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Kumar_Sheet" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>appName</t>
   </si>
@@ -45,9 +51,6 @@
     <t>https://gmail.com</t>
   </si>
   <si>
-    <t>gmailuser1122</t>
-  </si>
-  <si>
     <t>gmailpwd1122</t>
   </si>
   <si>
@@ -66,24 +69,26 @@
     <t>slpwd1122</t>
   </si>
   <si>
-    <t>Row0</t>
-  </si>
-  <si>
-    <t>Row1</t>
-  </si>
-  <si>
-    <t>Row1,Cell2</t>
-  </si>
-  <si>
-    <t>training#1122</t>
+    <t>NewColumnJB</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>kumar#1122</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -113,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -136,17 +141,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,6 +174,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -359,21 +380,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.44140625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.109375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.44140625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.88671875" collapsed="false"/>
+    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -386,8 +408,11 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -398,10 +423,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -412,38 +440,77 @@
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G18" t="s">
+      <c r="E7" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -461,7 +528,7 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -473,7 +540,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
